--- a/data/trans_orig/IP07C27_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C27_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{468B7676-EF78-44CB-A753-AF2B5C79F17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88F66949-8256-4BC6-8B94-D67444368EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1DDA3F2D-4F83-437E-9A60-0BEFDFDF2784}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9B3AD89F-8E70-46AE-A27E-B0B417207903}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="178">
   <si>
     <t>Menores según frecuencia de tener problemas para dormir en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
@@ -83,13 +83,13 @@
     <t>17,78%</t>
   </si>
   <si>
-    <t>56,84%</t>
+    <t>63,58%</t>
   </si>
   <si>
     <t>8,02%</t>
   </si>
   <si>
-    <t>32,59%</t>
+    <t>34,9%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -98,19 +98,19 @@
     <t>4,87%</t>
   </si>
   <si>
-    <t>27,84%</t>
+    <t>21,92%</t>
   </si>
   <si>
     <t>5,36%</t>
   </si>
   <si>
-    <t>23,17%</t>
+    <t>25,66%</t>
   </si>
   <si>
     <t>5,09%</t>
   </si>
   <si>
-    <t>14,57%</t>
+    <t>19,11%</t>
   </si>
   <si>
     <t>Moderadamente</t>
@@ -119,445 +119,454 @@
     <t>10,72%</t>
   </si>
   <si>
-    <t>33,47%</t>
+    <t>34,36%</t>
   </si>
   <si>
     <t>8,62%</t>
   </si>
   <si>
-    <t>31,6%</t>
+    <t>31,98%</t>
   </si>
   <si>
     <t>9,78%</t>
   </si>
   <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>Un Poco</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>Un Poco</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
   </si>
   <si>
     <t>12,17%</t>
   </si>
   <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
   </si>
   <si>
     <t>69,98%</t>
   </si>
   <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
+    <t>79,77%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -972,7 +981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520E3B81-69D7-4C5A-86DA-13DEC64AA399}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE434862-D8ED-4A48-84BC-B1BE8266482A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1470,13 +1479,13 @@
         <v>4398</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -1488,10 +1497,10 @@
         <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1506,13 +1515,13 @@
         <v>627</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -1814,7 +1823,7 @@
         <v>1495</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
@@ -1847,10 +1856,10 @@
         <v>115</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,13 +1874,13 @@
         <v>10337</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -1880,13 +1889,13 @@
         <v>4534</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M19" s="7">
         <v>20</v>
@@ -1895,10 +1904,10 @@
         <v>14871</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>125</v>
@@ -2038,10 +2047,10 @@
         <v>138</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -2050,13 +2059,13 @@
         <v>11229</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,13 +2080,13 @@
         <v>7070</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -2092,7 +2101,7 @@
         <v>146</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="M23" s="7">
         <v>16</v>
@@ -2101,13 +2110,13 @@
         <v>13038</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2122,13 +2131,13 @@
         <v>3936</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -2137,13 +2146,13 @@
         <v>5755</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -2152,13 +2161,13 @@
         <v>9691</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,13 +2182,13 @@
         <v>43921</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -2188,13 +2197,13 @@
         <v>35470</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>87</v>
@@ -2203,13 +2212,13 @@
         <v>79391</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,13 +2233,13 @@
         <v>207686</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H26" s="7">
         <v>209</v>
@@ -2239,13 +2248,13 @@
         <v>148692</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>448</v>
@@ -2254,13 +2263,13 @@
         <v>356377</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,7 +2325,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C27_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C27_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88F66949-8256-4BC6-8B94-D67444368EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB86EA61-812D-4F50-BB13-C6CCEE3BE7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9B3AD89F-8E70-46AE-A27E-B0B417207903}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BB20818C-AF6E-422F-BF7D-AE7BDA62973C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="178">
-  <si>
-    <t>Menores según frecuencia de tener problemas para dormir en 2023 (Tasa respuesta: 30,05%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="159">
+  <si>
+    <t>Menores según frecuencia de tener problemas para dormir en 2023 (Tasa respuesta: 30,0%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,133 +68,112 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Muchísimo</t>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>4,45%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>Un Poco</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
   </si>
   <si>
     <t>100%</t>
@@ -203,370 +182,334 @@
     <t>Secundarios</t>
   </si>
   <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
   </si>
   <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -981,7 +924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE434862-D8ED-4A48-84BC-B1BE8266482A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B46E3E5-E0CB-477A-AEB7-8F22CA5FC0FA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1099,10 +1042,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>6021</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1114,238 +1057,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>2473</v>
+        <v>4319</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N4" s="7">
-        <v>2473</v>
+        <v>10340</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5834</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <v>10</v>
+      </c>
+      <c r="I5" s="7">
+        <v>8972</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>824</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>746</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="7">
-        <v>2</v>
-      </c>
       <c r="N5" s="7">
-        <v>1570</v>
+        <v>14807</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>1814</v>
+        <v>551</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>1200</v>
+        <v>2866</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>3014</v>
+        <v>3418</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>4082</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>1980</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M7" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>6062</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="7">
-        <v>13</v>
-      </c>
-      <c r="D8" s="7">
-        <v>10198</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="7">
-        <v>11</v>
-      </c>
-      <c r="I8" s="7">
-        <v>7511</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" s="7">
-        <v>24</v>
-      </c>
-      <c r="N8" s="7">
-        <v>17708</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1354,306 +1297,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7">
-        <v>16918</v>
+        <v>12407</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H9" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I9" s="7">
-        <v>13910</v>
+        <v>16158</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="M9" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N9" s="7">
-        <v>30827</v>
+        <v>28565</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="D10" s="7">
-        <v>4021</v>
+        <v>84671</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="7">
+        <v>140</v>
+      </c>
+      <c r="I10" s="7">
+        <v>130853</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="7">
+        <v>266</v>
+      </c>
+      <c r="N10" s="7">
+        <v>215524</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7">
-        <v>3259</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" s="7">
-        <v>10</v>
-      </c>
-      <c r="N10" s="7">
-        <v>7280</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="D11" s="7">
-        <v>3191</v>
+        <v>68808</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="7">
+        <v>63</v>
+      </c>
+      <c r="I11" s="7">
+        <v>58745</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" s="7">
+        <v>124</v>
+      </c>
+      <c r="N11" s="7">
+        <v>127553</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="7">
-        <v>6</v>
-      </c>
-      <c r="I11" s="7">
-        <v>4398</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M11" s="7">
-        <v>10</v>
-      </c>
-      <c r="N11" s="7">
-        <v>7589</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>627</v>
+        <v>5391</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="7">
+        <v>8</v>
+      </c>
+      <c r="I12" s="7">
+        <v>8301</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" s="7">
+        <v>15</v>
+      </c>
+      <c r="N12" s="7">
+        <v>13692</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="7">
-        <v>4</v>
-      </c>
-      <c r="I12" s="7">
-        <v>2593</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M12" s="7">
-        <v>5</v>
-      </c>
-      <c r="N12" s="7">
-        <v>3220</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>29502</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1158</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1158</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="7">
-        <v>28</v>
-      </c>
-      <c r="I13" s="7">
-        <v>28956</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M13" s="7">
-        <v>59</v>
-      </c>
-      <c r="N13" s="7">
-        <v>58458</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7">
-        <v>176</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>159761</v>
+        <v>444</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>152</v>
+        <v>4</v>
       </c>
       <c r="I14" s="7">
-        <v>108882</v>
+        <v>3643</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>328</v>
+        <v>5</v>
       </c>
       <c r="N14" s="7">
-        <v>268643</v>
+        <v>4086</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1662,306 +1605,306 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>195</v>
+      </c>
+      <c r="D15" s="7">
+        <v>159313</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="7">
         <v>217</v>
       </c>
-      <c r="D15" s="7">
-        <v>197103</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="7">
-        <v>195</v>
-      </c>
       <c r="I15" s="7">
-        <v>148088</v>
+        <v>202700</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="M15" s="7">
         <v>412</v>
       </c>
       <c r="N15" s="7">
-        <v>345191</v>
+        <v>362013</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D16" s="7">
-        <v>546</v>
+        <v>29279</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="I16" s="7">
-        <v>929</v>
+        <v>42796</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M16" s="7">
         <v>100</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M16" s="7">
-        <v>2</v>
-      </c>
       <c r="N16" s="7">
-        <v>1475</v>
+        <v>72075</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D17" s="7">
-        <v>3054</v>
+        <v>8299</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="7">
+        <v>12</v>
+      </c>
+      <c r="I17" s="7">
+        <v>8983</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M17" s="7">
+        <v>23</v>
+      </c>
+      <c r="N17" s="7">
+        <v>17282</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>825</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M17" s="7">
-        <v>4</v>
-      </c>
-      <c r="N17" s="7">
-        <v>3879</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>1495</v>
+        <v>736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H18" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>1962</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M18" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N18" s="7">
-        <v>3457</v>
+        <v>736</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>10337</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="H19" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>4534</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>14871</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C20" s="7">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>37727</v>
+        <v>438</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>32299</v>
+        <v>914</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>70026</v>
+        <v>1352</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1970,49 +1913,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>57</v>
+      </c>
+      <c r="D21" s="7">
+        <v>38752</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="7">
         <v>69</v>
       </c>
-      <c r="D21" s="7">
-        <v>53160</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="7">
-        <v>57</v>
-      </c>
       <c r="I21" s="7">
-        <v>40548</v>
+        <v>52693</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="M21" s="7">
         <v>126</v>
       </c>
       <c r="N21" s="7">
-        <v>93708</v>
+        <v>91445</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2023,253 +1966,253 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>6</v>
+        <v>178</v>
       </c>
       <c r="D22" s="7">
-        <v>4567</v>
+        <v>119971</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="H22" s="7">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="I22" s="7">
-        <v>6661</v>
+        <v>177968</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="M22" s="7">
-        <v>13</v>
+        <v>380</v>
       </c>
       <c r="N22" s="7">
-        <v>11229</v>
+        <v>297939</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D23" s="7">
-        <v>7070</v>
+        <v>82942</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="H23" s="7">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="I23" s="7">
-        <v>5968</v>
+        <v>76700</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="M23" s="7">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="N23" s="7">
-        <v>13038</v>
+        <v>159642</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D24" s="7">
-        <v>3936</v>
+        <v>6678</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="H24" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I24" s="7">
-        <v>5755</v>
+        <v>11168</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>141</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="M24" s="7">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N24" s="7">
-        <v>9691</v>
+        <v>17846</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>43921</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>159</v>
+        <v>32</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>35470</v>
+        <v>1158</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="M25" s="7">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="N25" s="7">
-        <v>79391</v>
+        <v>1158</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7">
-        <v>239</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>207686</v>
+        <v>881</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="H26" s="7">
-        <v>209</v>
+        <v>5</v>
       </c>
       <c r="I26" s="7">
-        <v>148692</v>
+        <v>4557</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="M26" s="7">
-        <v>448</v>
+        <v>7</v>
       </c>
       <c r="N26" s="7">
-        <v>356377</v>
+        <v>5438</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,54 +2221,54 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="D27" s="7">
-        <v>267180</v>
+        <v>210472</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="I27" s="7">
-        <v>202546</v>
+        <v>271551</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N27" s="7">
-        <v>469726</v>
+        <v>482023</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
